--- a/biology/Zoologie/Diaprograpta_peterandrewsi/Diaprograpta_peterandrewsi.xlsx
+++ b/biology/Zoologie/Diaprograpta_peterandrewsi/Diaprograpta_peterandrewsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaprograpta peterandrewsi est une espèce d'araignées aranéomorphes de la famille des Miturgidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaprograpta peterandrewsi est une espèce d'araignées aranéomorphes de la famille des Miturgidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Winton[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Winton.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,88 mm de long sur 2,94 mm et l'abdomen 3,63 mm de long sur 2,50 mm et la carapace de la femelle paratype mesure 3,38 mm de long sur 2,50 mm et l'abdomen 6,06 mm de long sur 3,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,88 mm de long sur 2,94 mm et l'abdomen 3,63 mm de long sur 2,50 mm et la carapace de la femelle paratype mesure 3,38 mm de long sur 2,50 mm et l'abdomen 6,06 mm de long sur 3,25 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Peter Andrews[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Peter Andrews.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 2009 : Revisions of Australian ground-hunting spiders: IV. The spider subfamily Diaprograptinae subfam. nov. (Araneomorphae: Miturgidae). Zootaxa, no 2035, p. 1-40.</t>
         </is>
